--- a/xlsx/中產階級_intext.xlsx
+++ b/xlsx/中產階級_intext.xlsx
@@ -29,7 +29,7 @@
     <t>薪酬</t>
   </si>
   <si>
-    <t>政策_政策_管理_中產階級</t>
+    <t>体育运动_体育运动_橄榄球类运动_中產階級</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E4%BA%BA%E5%A3%AB</t>
